--- a/data/language.xlsx
+++ b/data/language.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23dae2d40ebd233/Desktop/QA/Home/helpers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23dae2d40ebd233/Desktop/QA/Home/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_D85EBDC897D9AE2F8564CB7F6F2D6C3B60B4EC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{915FDB27-EF5F-4A0C-9BFE-106D07EDD4ED}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="11_D85EBDC897D9AE2F8564CB7F6F2D6C3B60B4EC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCA0807-DC3A-4584-8082-1D3A090D375B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>key</t>
   </si>
@@ -28,155 +28,167 @@
     <t>ko</t>
   </si>
   <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>vi</t>
-  </si>
-  <si>
-    <t>컨투어링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보톡스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사각턱 보톡스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contouring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>botox_square</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Botox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>en</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Contouring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Square jaw botox</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>輪郭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ボトックス</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正方形のボトックス</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮廓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉毒杆菌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>方下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>颌肉毒杆菌</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>โบท็อกซ์กรามเหลี่ยม</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>คอนทัวร์</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>โบท็อกซ์</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Đư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ờ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ng vi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ề</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Botox hàm vuông</t>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오로 시작하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글로 시작하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버십 조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 혜택 안내사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Membership</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Membership Benefits Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer_branch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CERAMIQUE Clinic Gangnam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라미크의원 강남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약하러 가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landing_removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landing_lifting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제모 시술 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리프팅 시술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lifting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair Removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discover_lifting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discover_removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discover_btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landing_btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 문의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>removal_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifting_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>removal_btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifting_btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 구글 가이드에 맞게 버튼 명 수정 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>membership_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>membership_subtitle1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>membership_subtitle2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_subtitle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,54 +219,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -284,14 +261,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -307,6 +283,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,109 +576,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="B1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="17.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" customWidth="1"/>
+    <col min="5" max="5" width="50.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-    </row>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/language.xlsx
+++ b/data/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23dae2d40ebd233/Desktop/QA/Home/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="11_D85EBDC897D9AE2F8564CB7F6F2D6C3B60B4EC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCA0807-DC3A-4584-8082-1D3A090D375B}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="11_D85EBDC897D9AE2F8564CB7F6F2D6C3B60B4EC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C2E4A2-AEB4-4513-982E-A77145EDE4EE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-192" yWindow="312" windowWidth="23232" windowHeight="13464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>key</t>
   </si>
@@ -40,6 +40,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>txt_login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>카카오로 시작하기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -64,6 +72,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>txt_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Membership Benefits Info</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,11 +104,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>landing_removal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>landing_lifting</t>
+    <t>txt_profile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_reservation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -116,79 +128,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>discover_lifting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>discover_removal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>discover_btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Reservation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>landing_btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>예약 문의</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>profile_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>removal_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifting_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>removal_btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifting_btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카카오 구글 가이드에 맞게 버튼 명 수정 예정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>membership_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>membership_subtitle1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>membership_subtitle2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>My Page</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>profile_subtitle</t>
+    <t>btn_removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_lifting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>header_reservation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt_lifting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt_removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt_mypage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt_membership</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -576,264 +560,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E63"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="28.796875" customWidth="1"/>
-    <col min="5" max="5" width="50.59765625" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="28.796875" customWidth="1"/>
+    <col min="4" max="4" width="50.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
@@ -859,12 +791,6 @@
     <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/language.xlsx
+++ b/data/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23dae2d40ebd233/Desktop/QA/Home/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_D85EBDC897D9AE2F8564CB7F6F2D6C3B60B4EC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18C2E4A2-AEB4-4513-982E-A77145EDE4EE}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="11_D85EBDC897D9AE2F8564CB7F6F2D6C3B60B4EC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{356BF80C-1859-4F18-B4F0-23181E5E7D48}"/>
   <bookViews>
     <workbookView xWindow="-192" yWindow="312" windowWidth="23232" windowHeight="13464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>key</t>
   </si>
@@ -169,10 +169,6 @@
   </si>
   <si>
     <t>txt_membership</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +559,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -744,11 +740,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>

--- a/data/language.xlsx
+++ b/data/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23dae2d40ebd233/Desktop/QA/Home/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="11_D85EBDC897D9AE2F8564CB7F6F2D6C3B60B4EC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{356BF80C-1859-4F18-B4F0-23181E5E7D48}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="11_D85EBDC897D9AE2F8564CB7F6F2D6C3B60B4EC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC01A709-60D3-4549-BCBB-25225A3D4F09}"/>
   <bookViews>
-    <workbookView xWindow="-192" yWindow="312" windowWidth="23232" windowHeight="13464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-192" yWindow="312" windowWidth="23232" windowHeight="13464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>key</t>
   </si>
@@ -144,14 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>btn_removal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_lifting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>header_reservation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -169,6 +161,34 @@
   </si>
   <si>
     <t>txt_membership</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">… </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_reserve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예약 하기 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,208 +576,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.796875" customWidth="1"/>
-    <col min="4" max="4" width="50.59765625" customWidth="1"/>
+    <col min="1" max="1" width="28.3984375" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" customWidth="1"/>
+    <col min="5" max="5" width="50.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.4"/>

--- a/data/language.xlsx
+++ b/data/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23dae2d40ebd233/Desktop/QA/Home/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="11_D85EBDC897D9AE2F8564CB7F6F2D6C3B60B4EC0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC01A709-60D3-4549-BCBB-25225A3D4F09}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{E55B5C6B-46CE-436E-ABA7-022CB6E1DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2EB41B6-4B19-4C25-87A4-7C457221B7C5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-192" yWindow="312" windowWidth="23232" windowHeight="13464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22610" yWindow="3780" windowWidth="27880" windowHeight="13130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>key</t>
   </si>
@@ -180,15 +180,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">… </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_reserve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">예약 하기 </t>
+    <t>btn_removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_lifting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -283,10 +283,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,7 +575,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -611,20 +607,24 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
@@ -781,26 +781,22 @@
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
